--- a/7. 软件设计部/平台组态资源组缺陷率统计(2020.01.01-2020.06.30).xlsx
+++ b/7. 软件设计部/平台组态资源组缺陷率统计(2020.01.01-2020.06.30).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\99se\Hollysys\7. 软件设计部\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangbin184035\Desktop\99se\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,64 +14,47 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码行数（KLOC）</t>
+  </si>
+  <si>
+    <t>自身引入缺陷个数</t>
+  </si>
+  <si>
+    <t>争议缺陷ID</t>
   </si>
   <si>
     <t>缺陷率（缺陷个数/代码行数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码行数（KLOC）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯勤</t>
   </si>
   <si>
     <t>20200101-20200630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身引入缺陷个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
   <si>
     <t>VBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>争议缺陷ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汪玲</t>
@@ -92,7 +75,12 @@
     <t>孙丰妹</t>
   </si>
   <si>
-    <t>20200101-20200630</t>
+    <t>VBA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -102,19 +90,23 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,80 +135,95 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -225,48 +232,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,23 +640,18 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="G15" sqref="G15:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -634,387 +663,532 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>28990</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="e">
-        <f>E2/(D2*1000+D3*1000*0.1+D4*1000*0.1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="3">
+        <v>24890</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="3">
+        <v>1193</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="3">
+        <v>3931</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
+      <c r="D21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="15">
+        <v>15</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="41">
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G27"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>